--- a/Dados Tabela Fipe.xlsx
+++ b/Dados Tabela Fipe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,7 +539,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>quinta-feira, 1 de fevereiro de 2024 18:40</t>
+          <t>quinta-feira, 1 de fevereiro de 2024 18:58</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,6049 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>quinta-feira, 1 de fevereiro de 2024 18:40</t>
+          <t>quinta-feira, 1 de fevereiro de 2024 18:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>R$ 38.009,00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A3 1.6 3p</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>008032-2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>spzn0rbc54</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>R$ 65.582,00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A4 1.8  Aut.</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>008047-0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>338mfrkclf</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>R$ 111.787,00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A6 2.4 30V Mec</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>008024-1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>gkdgphnx5fp</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>R$ 209.869,00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A8 4.2 Quattro Tiptronic</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>008062-4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>k8df43sc9hp</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>R$ 93.533,00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>S3 1.8 225cv Turbo Quattro</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>008066-7</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>cgpzyxjybzrc</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>R$ 156.525,00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>S4 2.7 Turbo Quattro Mec.</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>008063-2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>h7vkhgnpsbp</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>R$ 106.088,00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TT 1.8 TB 180cv</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>008034-9</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>gbp99n8nqgp</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>R$ 98.473,00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>323Ci Coupê</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>009057-3</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>cjkxhnl768qc</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>R$ 102.224,00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>323CiA Coupê</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>009058-1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>f55wjb8x8vp</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>R$ 98.362,00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>323i 2.5 24V</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>009063-8</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>cjjl4yypw5fc</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>R$ 94.013,00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>323iA 2.5 24V</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>009064-6</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>cgwmfbydvf6c</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>R$ 66.176,00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>323Ti Compact</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>009031-0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>4b7h9thr80c</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>R$ 68.199,00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>323TiA Compact Top</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>009033-6</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>43ytk7sczxc</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>R$ 116.076,00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>328iA Exclusive 2.8 24V</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>009067-0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>gqfcbv12hsp</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>R$ 135.103,00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>528i/iA</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>009008-5</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>hfqx35w3czp</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>R$ 132.425,00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>528iA High</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>009023-9</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>hblln48rpcp</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>R$ 185.943,00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>540i</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>009010-7</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>kcbtdjw88gp</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>R$ 187.635,00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>540i/iA Touring</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>009017-4</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>kd99v4h5mbp</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>R$ 187.304,00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>540iA</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>009025-5</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>kdx8xhmcl2p</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>R$ 193.701,00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>540iTA</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>009052-2</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>knfsr2m04hp</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>R$ 206.982,00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>740iA</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>009027-1</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>k40h6wbm98p</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>R$ 282.563,00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>740iLA Protection</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>009053-0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>n0mnj94nmzp</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>R$ 254.004,00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>750iA</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>009028-0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>mx4mjnj7plp</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>R$ 173.600,00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>M Roadster</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>009079-4</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>jwv5vkl0rzp</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>R$ 108.945,00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Z3 2.8 Aut.</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>009020-4</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>gf15f3cy6cp</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>R$ 11.449,00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>BRM</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Buggy/M-8/M-8 Long 1.6</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>039001-1</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>gnkxmh4rzzc</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>R$ 92.567,00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Chrysler</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>300 M 3.5</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>010014-5</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>cgbnvgnxl35c</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>R$ 78.465,00</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Chrysler</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Caravan LE  3.3</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>010008-0</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>8z96b2xqlgc</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>R$ 90.603,00</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Chrysler</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Grand Caravan LE 3.3 Aut</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>010007-2</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>cflmzzmtvd7c</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>R$ 51.962,00</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Chrysler</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Stratus LE 2.0</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>010003-0</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>yzk47mj04pc</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>R$ 50.548,00</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Citroën</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Evasion  GLX 2.0 16V</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>011027-2</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>yfz6xjbk3kc</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>R$ 33.722,00</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Citroën</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Xsara Break Exclusive 1.8 16V</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>011021-3</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>q2qgy8ztwnc</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>R$ 27.025,00</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Dodge</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Dakota 2.5</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>013004-4</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>nj594dsyh3c</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>R$ 522.050,00</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Ferrari</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>360 Modena</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>031011-5</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>y2d8yd3w8jp</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>R$ 746.045,00</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Ferrari</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>456 GT</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>031005-0</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>7j1tmn0nf5p</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>R$ 728.761,00</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Ferrari</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>550 Maranello</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>031007-7</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>6wslscbyt4p</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>R$ 26.737,00</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Fiat</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Brava ELX  1.6 16V 4p</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>001110-0</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>nftm2tk4nsc</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>R$ 31.532,00</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Fiat</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Marea City</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>001079-0</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>p71g076gg1c</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>R$ 21.014,00</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Fiat</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Palio 1.6 mpi 16V 2p</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>001009-0</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>k8qhvms60cc</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>R$ 15.838,00</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Fiat</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Siena 1.0 mpi/ 500 1.0 mpi</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>001078-2</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>h905zfpz7kc</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>R$ 18.639,00</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Fiat</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Strada LX 1.6 16V CE</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>001113-4</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>kcv8dyn2gbc</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>R$ 15.529,00</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Fiat</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Strada/ Strada Working 1.5 mpi 8V CE</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>001122-3</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>h6dv9mpg6zc</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>R$ 92.685,00</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Ford</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Explorer Limited 5.0 4x4 V8</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>003138-0</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>cgc1q2zdggxc</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>R$ 13.529,00</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Ford</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Fiesta 1.0i 3p e 5p</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>003016-3</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>hfyx6h40nlc</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>R$ 12.620,00</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Ford</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ka 1.0i 3p</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>003018-0</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>g29jz3z7vnc</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>R$ 30.151,00</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>GM - Chevrolet</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Astra 2.0/ CD/ GLS 2.0 MPFI 16V 3p</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>004169-6</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>pqvjlcrp7tc</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>R$ 71.687,00</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>GM - Chevrolet</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Omega CD 3.8 V6</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>004090-8</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>6fvltmb7tmp</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>R$ 61.515,00</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Honda</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CR-V 2.0 16V Aut.</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>014032-5</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2llc6sqwl1p</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>R$ 29.959,00</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Hyundai</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Accent GLS 1.5 12V/16V Aut.</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>015032-0</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>pnlq31pyfnp</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>R$ 22.571,00</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Hyundai</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Atos Prime GLS 1.0 Aut.</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>015035-5</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>lvzfdkwtvjp</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>R$ 52.271,00</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Hyundai</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Coupe FX 2.0 Aut.</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>015037-1</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>y26gw1sq3lp</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>R$ 288.509,00</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Jaguar</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Daimler LWB 4.0</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>016006-7</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>n7lr7ptsf9p</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>R$ 146.506,00</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Jaguar</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>S-Type 3.0/ 3.0 SE V6</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>016009-1</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>hv3djg3zxpp</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>R$ 280.443,00</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Jaguar</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>XK-8 BR Conversível / XK-8 Conversível</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>016008-3</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>nx4ltwybh2p</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>R$ 50.854,00</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Jeep</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Wrangler 4.0/Sport 4.0</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>017003-8</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>yklfr0w35qp</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>R$ 53.297,00</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Kia Motors</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Carnival 2.5 V6</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>018016-5</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>zg7dd19wvyp</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>R$ 32.359,00</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Kia Motors</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Clarus GLX 2.0 16V Aut.</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>018030-0</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>qkq18gv5slp</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>R$ 24.874,00</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Kia Motors</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Shuma LS 1.5 16V Aut.</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>018032-7</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>mqzhlf1684p</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>R$ 39.161,00</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Kia Motors</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Sportage 2.0 16V Aut.</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>018012-2</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>s4hc6g560zp</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>R$ 78.597,00</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Land Rover</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Discovery ES 3.9 V8</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>033008-6</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>81v5njpw1cp</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>R$ 77.622,00</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Land Rover</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Freelander 1.8 16v</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>033020-5</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>8pfssksw0bp</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>R$ 158.322,00</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Land Rover</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Range Rover HSE 4.4/ 4.6</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>033009-4</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>h9yv8npn17p</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>R$ 102.023,00</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Lexus</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ES-300 3.0</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>057020-6</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>f5yk1js5n6p</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>R$ 179.174,00</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Lexus</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>LS 400 4.0</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>057025-7</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>j3dsc52mmvp</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>R$ 127.980,00</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Lexus</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>RX 300 3.0 V6 24V</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>057002-8</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>g5c07tj34np</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>R$ 279.126,00</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Maserati</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>3200 GT Cupê</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>034001-4</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>nwlqwt31r1p</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>R$ 256.787,00</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Maserati</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Quattroporte Evolucione Aut.</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>034002-2</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>m1dr87pslsp</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>R$ 63.225,00</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Mazda</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>MPV Minivan Aut</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>020004-2</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>27mxq5mvfvp</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>R$ 28.081,00</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Mazda</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Protegé Aut.</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>020023-9</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>nyk4nc6f6cp</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>R$ 76.131,00</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>C-180 Classic/Classic Plus/Elegance</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>021001-3</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>73yvvrkkhtp</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>R$ 215.265,00</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CL-500 5.0/ 5.5</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>021046-3</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>lgqk4bv80xp</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>R$ 32.624,00</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Classe A 160 Classic Semi-Aut.</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>021051-0</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>qnvc5jgqn2p</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>R$ 156.635,00</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CLK-230 Cabriolet Kompressor</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>021099-4</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>h7zkfp8l1wp</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>R$ 146.056,00</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>SLK-230 Kompressor</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>021021-8</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>hvk1g7vmwjp</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>R$ 50.633,00</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Mitsubishi</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Galant 2.0</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>022025-6</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>ygz3m2zzwsp</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>R$ 91.218,00</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Maxima 30G/ GLE 3.0 V6 24V</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>023013-8</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>cftvjjbpw30p</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>R$ 54.996,00</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Primera GXE 2.0 16V</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>023014-6</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>z34xz8nlkyp</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>R$ 24.555,00</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Peugeot</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>206 Passion 1.6</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>024030-3</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>ml7j7p597vp</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>R$ 29.129,00</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Peugeot</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>306 Break Passion 1.8 16V</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>024032-0</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>pbv11y2gysp</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>R$ 56.650,00</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Peugeot</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>806 ST Turbo</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>024022-2</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>0rj3j364qdp</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>R$ 17.913,00</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Peugeot</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Partner Furgão 1.8 3p</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>024063-0</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>j3cc3tx25qp</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>R$ 344.802,00</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Porsche</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>911 Carrera Cabriolet 3.4/ 3.6 Mec.</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>035003-6</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>rclvp8hj3wp</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>R$ 187.177,00</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Porsche</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Boxster Mec.</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>035015-0</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>kdsntgbsszp</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>R$ 16.621,00</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Clio RL / Yahoo/ Authent. 1.0 8V 5p</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>025026-0</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>jl6sfk6m5fp</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>R$ 14.723,00</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Express 1.6/ RL 1.6</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>025012-0</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>hwyxlyxp67p</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>R$ 16.115,00</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Kangoo Express RL/ Express 1.0 16V/8V</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>025044-9</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>jd8v1npphxp</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>R$ 39.543,00</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Laguna Nevada RT/ RXE 2.0s 16V</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>025010-4</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>s8y7d39ms0p</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>R$ 22.379,00</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Megane Hatch RN 1.6</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>025022-8</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>lsqm1bb85bp</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>R$ 29.599,00</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Scénic RT 2.0</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>025024-4</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>pjcwtcksvqp</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>R$ 25.331,00</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Trafic Furgão 2.0 98cv</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>025047-3</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>mxblv5zywkp</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>R$ 18.270,00</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Twingo 1.0 8V</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>025035-0</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>j7j4myq6k0p</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>R$ 26.450,00</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Seat</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Cordoba 1.6L</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>026003-7</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>nbf98j0brlp</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>R$ 16.366,00</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Seat</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Inca 1.6L</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>026007-0</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>jh626kmhs6p</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>R$ 62.212,00</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Subaru</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Forester 2.0 4x4 Mec.</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>027013-0</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2vrqp7h1w2p</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>R$ 73.327,00</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Subaru</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Outback 2.5 4x4 Aut.</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>027028-8</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>612pmn8f3dp</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>R$ 36.368,00</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Suzuki</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Grand Vitara 1.6 16V Aut.</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>028025-9</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>r2q6xpmc7xp</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>R$ 28.328,00</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Suzuki</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Jimny Wide/ Jimny/4ALL 1.3 16V</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>028015-1</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>n1gxq90785p</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>R$ 57.771,00</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Camry LE</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>002009-5</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>05pkg49hmqp</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>R$ 50.042,00</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Corona Aut.</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>002063-0</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>x719jbbvrwp</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>R$ 54.022,00</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>RAV4 2.0 4x4 16V Aut.</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>002066-4</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>zrqxdrthvvp</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>R$ 150.659,00</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Volvo</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>C70 Cabriolet</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>029027-0</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>h0zbyf264wp</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>R$ 66.376,00</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Volvo</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>S40 1.8 Aut.</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>029005-0</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>4fk6tv77dyp</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>R$ 134.362,00</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Volvo</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>S80 2.9</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>029016-5</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>hdvz6g8l4gp</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>R$ 68.011,00</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Volvo</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>V40 1.8 Aut.</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>029006-8</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>41rg83ggtbp</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>R$ 116.541,00</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Volvo</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>V70 2.5</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>029020-3</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>gqy78197xnp</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>R$ 28.494,00</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>VW - VolksWagen</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Golf 1.6Mi/ 1.6Mi Gener./Black &amp; Silver</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>005085-7</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>n3d748cg78p</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>R$ 17.926,00</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>VW - VolksWagen</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Kombi Carat</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>005081-4</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>j3h3lt1y5cp</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>R$ 44.554,00</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>VW - VolksWagen</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>New Beetle 2.0 Mi Mec./Aut.</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>005111-0</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>v5qk44ty4bp</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>R$ 23.465,00</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>VW - VolksWagen</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Polo Classic/ Special 1.8 Mi</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>005013-0</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>l6gcl38gfqp</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>R$ 23.285,00</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>VW - VolksWagen</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Quantum 1.8 Mi/ 1.8i</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>005014-8</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>l4byf4zzg5p</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>R$ 22.484,00</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>VW - VolksWagen</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Santana 1.8 Mi</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>005017-2</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>ltys4dnqf1p</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>R$ 16.042,00</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>VW - VolksWagen</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Saveiro 1.6 Mi/ 1.6 Mi Total Flex 8V</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>005094-6</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>jdfbjb8qqnp</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>R$ 16.958,00</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>VW - VolksWagen</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Van 1.6 Mi (furgão)</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>005096-2</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">janeiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>jq48ly4gr8p</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>R$ 109.107,00</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Alfa Romeo</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>166 3.0 V6 24V</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>006011-9</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fevereiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>gf71zz30mzc</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>quinta-feira, 1 de fevereiro de 2024 19:33</t>
         </is>
       </c>
     </row>

--- a/Dados Tabela Fipe.xlsx
+++ b/Dados Tabela Fipe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K473"/>
+  <dimension ref="A1:K481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25506,6 +25506,430 @@
         </is>
       </c>
     </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>R$ 29.620,00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>GM - Chevrolet</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Astra 2.0/ CD/ GLS 2.0 MPFI 16V 3p</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>004169-6</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fevereiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>pjmjmk4kqmc</t>
+        </is>
+      </c>
+      <c r="I474" t="n">
+        <v>1</v>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>sexta-feira, 2 de fevereiro de 2024 17:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>R$ 29.620,00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>GM - Chevrolet</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Astra 2.0/ CD/ GLS 2.0 MPFI 16V 3p</t>
+        </is>
+      </c>
+      <c r="D475" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>004169-6</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fevereiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>pjmjmk4kqmc</t>
+        </is>
+      </c>
+      <c r="I475" t="n">
+        <v>1</v>
+      </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>sexta-feira, 2 de fevereiro de 2024 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>R$ 29.620,00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>GM - Chevrolet</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Astra 2.0/ CD/ GLS 2.0 MPFI 16V 3p</t>
+        </is>
+      </c>
+      <c r="D476" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>004169-6</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fevereiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>pjmjmk4kqmc</t>
+        </is>
+      </c>
+      <c r="I476" t="n">
+        <v>1</v>
+      </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>sexta-feira, 2 de fevereiro de 2024 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>R$ 13.629,00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>GM - Chevrolet</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Celta 1.0/Super/N.Piq.1.0 MPFi VHC 8V 3p</t>
+        </is>
+      </c>
+      <c r="D477" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>004202-1</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fevereiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>hg3826wm6jc</t>
+        </is>
+      </c>
+      <c r="I477" t="n">
+        <v>1</v>
+      </c>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>sexta-feira, 2 de fevereiro de 2024 18:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>R$ 29.620,00</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>GM - Chevrolet</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Astra 2.0/ CD/ GLS 2.0 MPFI 16V 3p</t>
+        </is>
+      </c>
+      <c r="D478" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>004169-6</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fevereiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>pjmjmk4kqmc</t>
+        </is>
+      </c>
+      <c r="I478" t="n">
+        <v>1</v>
+      </c>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>sexta-feira, 2 de fevereiro de 2024 18:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>R$ 29.620,00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>GM - Chevrolet</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Astra 2.0/ CD/ GLS 2.0 MPFI 16V 3p</t>
+        </is>
+      </c>
+      <c r="D479" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>004169-6</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fevereiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>pjmjmk4kqmc</t>
+        </is>
+      </c>
+      <c r="I479" t="n">
+        <v>1</v>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>sexta-feira, 2 de fevereiro de 2024 18:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>R$ 13.629,00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>GM - Chevrolet</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Celta 1.0/Super/N.Piq.1.0 MPFi VHC 8V 3p</t>
+        </is>
+      </c>
+      <c r="D480" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>004202-1</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fevereiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>hg3826wm6jc</t>
+        </is>
+      </c>
+      <c r="I480" t="n">
+        <v>1</v>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>sexta-feira, 2 de fevereiro de 2024 18:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>R$ 29.620,00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>GM - Chevrolet</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Astra 2.0/ CD/ GLS 2.0 MPFI 16V 3p</t>
+        </is>
+      </c>
+      <c r="D481" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>004169-6</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fevereiro de 2001 </t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>pjmjmk4kqmc</t>
+        </is>
+      </c>
+      <c r="I481" t="n">
+        <v>1</v>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>sexta-feira, 2 de fevereiro de 2024 18:08</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
